--- a/Soubory/plan-cesty-pochodu.xlsx
+++ b/Soubory/plan-cesty-pochodu.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unihk-my.sharepoint.com/personal/fsvobop2_uhk_cz/Documents/Dokumenty/2021/BOOP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vobor\source\GitHub\ToDe\Soubory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{35166149-9EE3-4191-A118-EECBDCB898F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{527E6AEB-41E9-46DF-A05F-955A2517A2EC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C767099-E417-424A-8EB8-54DFA6CE5631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="18240" activeTab="1" xr2:uid="{ADAB6B92-20D7-4C5C-9147-D946901F7967}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{ADAB6B92-20D7-4C5C-9147-D946901F7967}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -136,11 +136,64 @@
         <color auto="1"/>
       </diagonal>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -178,6 +231,22 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -495,7 +564,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F34DA41-C7A8-4F52-8615-FDD503C07830}">
   <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -877,7 +948,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D659DA7E-2040-43B2-9D87-5F0552E31D43}">
   <dimension ref="A1:AP26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1992,16 +2065,20 @@
     <row r="24" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="20">
+        <v>10</v>
+      </c>
+      <c r="G24" s="21"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="20">
+        <v>5</v>
+      </c>
+      <c r="M24" s="21"/>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
@@ -2020,8 +2097,10 @@
       <c r="AC24" s="5"/>
       <c r="AD24" s="5"/>
       <c r="AE24" s="5"/>
-      <c r="AF24" s="5"/>
-      <c r="AG24" s="5"/>
+      <c r="AF24" s="23">
+        <v>0.85</v>
+      </c>
+      <c r="AG24" s="22"/>
       <c r="AH24" s="5"/>
       <c r="AI24" s="5"/>
       <c r="AJ24" s="5"/>
@@ -2035,16 +2114,16 @@
     <row r="25" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="21"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="21"/>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
@@ -2063,8 +2142,8 @@
       <c r="AC25" s="5"/>
       <c r="AD25" s="5"/>
       <c r="AE25" s="5"/>
-      <c r="AF25" s="5"/>
-      <c r="AG25" s="5"/>
+      <c r="AF25" s="22"/>
+      <c r="AG25" s="22"/>
       <c r="AH25" s="5"/>
       <c r="AI25" s="5"/>
       <c r="AJ25" s="5"/>
@@ -2119,6 +2198,11 @@
       <c r="AP26" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F24:G25"/>
+    <mergeCell ref="L24:M25"/>
+    <mergeCell ref="AF24:AG25"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Soubory/plan-cesty-pochodu.xlsx
+++ b/Soubory/plan-cesty-pochodu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vobor\source\GitHub\ToDe\Soubory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C767099-E417-424A-8EB8-54DFA6CE5631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0AFE0F-29CB-4460-96BE-D3F29446E517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{ADAB6B92-20D7-4C5C-9147-D946901F7967}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{ADAB6B92-20D7-4C5C-9147-D946901F7967}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -35,9 +35,50 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>5;8</t>
+  </si>
+  <si>
+    <t>1;3</t>
+  </si>
+  <si>
+    <t>2;9</t>
+  </si>
+  <si>
+    <t>6;8</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>45-135</t>
+  </si>
+  <si>
+    <t>135-225</t>
+  </si>
+  <si>
+    <t>225-315</t>
+  </si>
+  <si>
+    <t>315-405</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -66,6 +107,47 @@
     <font>
       <sz val="10"/>
       <color theme="1" tint="0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF7030A0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -193,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -242,12 +324,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -263,6 +353,493 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>216776</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>45983</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>39413</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>144518</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Ovál 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{388A40E3-165B-4E56-9BA9-7CE1E9908429}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7015655" y="2607880"/>
+          <a:ext cx="1478017" cy="1478017"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="cs-CZ" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>6569</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>78827</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>6569</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Přímá spojnice 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15995250-67E4-22E3-B0E2-7C1EADEEB81C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7744810" y="2568466"/>
+          <a:ext cx="788276" cy="788275"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>13138</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>197069</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>203636</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>111673</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Přímá spojnice 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AC252B0-CC09-4A8B-B63F-AA564B15FCDD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7757948" y="3350172"/>
+          <a:ext cx="899947" cy="899949"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>6569</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>6569</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Přímá spojnice 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FF75374-F275-4F3D-8ED9-1F4F0270D136}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7751379" y="3343603"/>
+          <a:ext cx="1182414" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>26275</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>26276</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Přímá spojnice 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5277C8F7-B6A5-3E95-1696-635FE0629B5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6588672" y="3343603"/>
+          <a:ext cx="1182414" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>59121</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>91964</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>13137</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>6569</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Přímá spojnice 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E21A3E3-0A38-4F6C-B366-2E3E38AE470C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6858000" y="2456792"/>
+          <a:ext cx="899947" cy="899949"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>183931</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>183932</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>26275</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>183931</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Přímá spojnice 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B030F30-70B0-DC6A-0B46-5EC0C1D2157D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7041931" y="3337035"/>
+          <a:ext cx="788275" cy="788275"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>6569</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>197069</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Přímá spojnice 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2803D35D-50E0-4198-BF35-8D08B974BEB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7863052" y="2358259"/>
+          <a:ext cx="6569" cy="991913"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>13139</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>6569</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>19707</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Přímá spojnice 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91FF1A58-8F86-FCBA-E959-751A965616CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7863052" y="3363311"/>
+          <a:ext cx="6569" cy="991913"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -562,18 +1139,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F34DA41-C7A8-4F52-8615-FDD503C07830}">
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:AR75"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="AD28" sqref="AD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.125" style="4"/>
+    <col min="19" max="20" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="33" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="39" max="41" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="43" max="44" width="3.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="4">
         <v>-1</v>
       </c>
@@ -626,7 +1215,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>-1</v>
       </c>
@@ -648,7 +1237,7 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>0</v>
       </c>
@@ -670,7 +1259,7 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -706,7 +1295,7 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -734,7 +1323,7 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -760,7 +1349,7 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -792,7 +1381,7 @@
       <c r="Q7" s="2"/>
       <c r="R7" s="1"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -818,7 +1407,7 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="1"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>6</v>
       </c>
@@ -848,7 +1437,7 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="1"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>7</v>
       </c>
@@ -893,8 +1482,21 @@
       <c r="R10" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="5"/>
+      <c r="AI10" s="5"/>
+      <c r="AJ10" s="5"/>
+      <c r="AK10" s="5"/>
+      <c r="AL10" s="5"/>
+      <c r="AM10" s="5"/>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>8</v>
       </c>
@@ -915,8 +1517,21 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="1"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="5"/>
+      <c r="AI11" s="5"/>
+      <c r="AJ11" s="5"/>
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="5"/>
+      <c r="AM11" s="5"/>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>9</v>
       </c>
@@ -937,10 +1552,2068 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="5">
+        <v>360</v>
+      </c>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5">
+        <v>-90</v>
+      </c>
+      <c r="AG12" s="5">
+        <v>270</v>
+      </c>
+      <c r="AH12" s="5"/>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="5"/>
+      <c r="AK12" s="5"/>
+      <c r="AL12" s="5"/>
+      <c r="AM12" s="5"/>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="5"/>
+      <c r="AI13" s="5"/>
+      <c r="AJ13" s="5">
+        <v>-180</v>
+      </c>
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="5"/>
+      <c r="AM13" s="5"/>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="5"/>
+      <c r="AI14" s="5"/>
+      <c r="AJ14" s="5"/>
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="5"/>
+      <c r="AM14" s="5"/>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="T15" t="s">
+        <v>4</v>
+      </c>
+      <c r="U15" t="s">
+        <v>5</v>
+      </c>
+      <c r="V15" t="s">
+        <v>6</v>
+      </c>
+      <c r="W15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="5"/>
+      <c r="AH15" s="5"/>
+      <c r="AI15" s="5"/>
+      <c r="AJ15" s="5"/>
+      <c r="AK15" s="5"/>
+      <c r="AL15" s="5"/>
+      <c r="AM15" s="5"/>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
+        <v>-1</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4">
+        <v>2</v>
+      </c>
+      <c r="F16" s="4">
+        <v>3</v>
+      </c>
+      <c r="G16" s="4">
+        <v>4</v>
+      </c>
+      <c r="H16" s="4">
+        <v>5</v>
+      </c>
+      <c r="I16" s="4">
+        <v>6</v>
+      </c>
+      <c r="J16" s="4">
+        <v>7</v>
+      </c>
+      <c r="K16" s="4">
+        <v>8</v>
+      </c>
+      <c r="L16" s="4">
+        <v>9</v>
+      </c>
+      <c r="S16" s="4">
+        <v>1</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>90</v>
+      </c>
+      <c r="V16">
+        <f>U16-T16</f>
+        <v>90</v>
+      </c>
+      <c r="W16">
+        <f>IF(AND(T16&gt;=45,T16&lt;=135),45-T16,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="5"/>
+      <c r="AI16" s="5"/>
+      <c r="AJ16" s="5"/>
+      <c r="AK16" s="5"/>
+      <c r="AL16" s="5"/>
+      <c r="AM16" s="5"/>
+    </row>
+    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>-1</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="S17" s="4">
+        <v>7</v>
+      </c>
+      <c r="T17">
+        <v>270</v>
+      </c>
+      <c r="U17">
+        <v>180</v>
+      </c>
+      <c r="V17">
+        <f t="shared" ref="V17:V30" si="0">U17-T17</f>
+        <v>-90</v>
+      </c>
+      <c r="W17">
+        <f>IF(AND(T17&gt;=45,T17&lt;=135),45-T17,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5">
+        <v>90</v>
+      </c>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="5"/>
+      <c r="AI17" s="5"/>
+      <c r="AJ17" s="5"/>
+      <c r="AK17" s="5"/>
+      <c r="AL17" s="5">
+        <v>90</v>
+      </c>
+      <c r="AM17" s="5"/>
+    </row>
+    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="3">
+        <v>1</v>
+      </c>
+      <c r="K18" s="2"/>
+      <c r="L18" s="1"/>
+      <c r="S18" s="4">
+        <v>24</v>
+      </c>
+      <c r="T18">
+        <v>90</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="0"/>
+        <v>-90</v>
+      </c>
+      <c r="W18">
+        <f>IF(AND(T18&gt;=45,T18&lt;=135),T18-45-T18,0)</f>
+        <v>-45</v>
+      </c>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
+      <c r="AG18" s="5"/>
+      <c r="AH18" s="5"/>
+      <c r="AI18" s="5"/>
+      <c r="AJ18" s="5"/>
+      <c r="AK18" s="5"/>
+      <c r="AL18" s="5"/>
+      <c r="AM18" s="5"/>
+    </row>
+    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="3">
+        <v>3</v>
+      </c>
+      <c r="J19" s="3">
+        <v>2</v>
+      </c>
+      <c r="K19" s="2"/>
+      <c r="L19" s="1"/>
+      <c r="S19" s="4">
+        <v>21</v>
+      </c>
+      <c r="T19">
+        <v>180</v>
+      </c>
+      <c r="U19">
+        <v>270</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="W19">
+        <f>IF(AND(T19&gt;=45,T19&lt;=135),45-T19,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="5"/>
+      <c r="AG19" s="5"/>
+      <c r="AH19" s="5"/>
+      <c r="AI19" s="5"/>
+      <c r="AJ19" s="5"/>
+      <c r="AK19" s="5"/>
+      <c r="AL19" s="5"/>
+      <c r="AM19" s="5"/>
+    </row>
+    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>2</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="3">
+        <v>4</v>
+      </c>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="1"/>
+      <c r="S20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <f>180+45</f>
+        <v>225</v>
+      </c>
+      <c r="U20">
+        <f>T20</f>
+        <v>225</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <f>IF(AND(T20&gt;=45,T20&lt;=135),45-T20,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="5"/>
+      <c r="AG20" s="5"/>
+      <c r="AH20" s="5"/>
+      <c r="AI20" s="5"/>
+      <c r="AJ20" s="5"/>
+      <c r="AK20" s="5"/>
+      <c r="AL20" s="5"/>
+      <c r="AM20" s="5"/>
+    </row>
+    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>3</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="3">
+        <v>9</v>
+      </c>
+      <c r="F21" s="3">
+        <v>8</v>
+      </c>
+      <c r="G21" s="3">
+        <v>7</v>
+      </c>
+      <c r="H21" s="3">
+        <v>6</v>
+      </c>
+      <c r="I21" s="3">
+        <v>5</v>
+      </c>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="1"/>
+      <c r="S21" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T21">
+        <v>45</v>
+      </c>
+      <c r="U21">
+        <v>45</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <f>IF(AND(T21&gt;=45,T21&lt;=135),45-T21,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="5"/>
+      <c r="AG21" s="5"/>
+      <c r="AH21" s="5"/>
+      <c r="AI21" s="5"/>
+      <c r="AJ21" s="5"/>
+      <c r="AK21" s="5"/>
+      <c r="AL21" s="5"/>
+      <c r="AM21" s="5"/>
+    </row>
+    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>4</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="3">
+        <v>11</v>
+      </c>
+      <c r="E22" s="3">
+        <v>10</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="1"/>
+      <c r="S22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="T22">
+        <f>360-45</f>
+        <v>315</v>
+      </c>
+      <c r="U22">
+        <f>90+45</f>
+        <v>135</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="0"/>
+        <v>-180</v>
+      </c>
+      <c r="W22">
+        <f>IF(AND(T22&gt;=45,T22&lt;=135),45-T22,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5">
+        <v>180</v>
+      </c>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="5"/>
+      <c r="AG22" s="5"/>
+      <c r="AH22" s="5"/>
+      <c r="AI22" s="5"/>
+      <c r="AJ22" s="5"/>
+      <c r="AK22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL22" s="5"/>
+      <c r="AM22" s="5"/>
+    </row>
+    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>5</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="3">
+        <v>12</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="1"/>
+      <c r="S23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="T23">
+        <f>90+45</f>
+        <v>135</v>
+      </c>
+      <c r="U23">
+        <f>360-45</f>
+        <v>315</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="W23">
+        <f>IF(AND(T23&gt;=45,T23&lt;=135),45-T23,0)</f>
+        <v>-90</v>
+      </c>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="5"/>
+      <c r="AF23" s="5">
+        <v>270</v>
+      </c>
+      <c r="AG23" s="5">
+        <v>-90</v>
+      </c>
+      <c r="AH23" s="5"/>
+      <c r="AI23" s="5"/>
+      <c r="AJ23" s="5">
+        <v>360</v>
+      </c>
+      <c r="AK23" s="5"/>
+      <c r="AL23" s="5"/>
+      <c r="AM23" s="5"/>
+    </row>
+    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>6</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="3">
+        <v>13</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="1"/>
+      <c r="T24">
+        <v>10</v>
+      </c>
+      <c r="U24">
+        <f>90-T24</f>
+        <v>80</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="W24">
+        <f>IF(AND(T24&gt;=45,T24&lt;=135),45-T24,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5"/>
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="5"/>
+      <c r="AG24" s="5"/>
+      <c r="AH24" s="5"/>
+      <c r="AI24" s="5"/>
+      <c r="AJ24" s="5"/>
+      <c r="AK24" s="5"/>
+      <c r="AL24" s="5"/>
+      <c r="AM24" s="5"/>
+    </row>
+    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>7</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="3">
+        <v>14</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="3">
+        <v>23</v>
+      </c>
+      <c r="H25" s="3">
+        <v>24</v>
+      </c>
+      <c r="I25" s="3">
+        <v>25</v>
+      </c>
+      <c r="J25" s="3">
+        <v>26</v>
+      </c>
+      <c r="K25" s="2"/>
+      <c r="L25" s="1"/>
+      <c r="T25">
+        <v>20</v>
+      </c>
+      <c r="U25">
+        <f>90-T25</f>
+        <v>70</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="W25">
+        <f>IF(AND(T25&gt;=45,T25&lt;=135),45-T25,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="5"/>
+      <c r="AC25" s="5"/>
+      <c r="AD25" s="5"/>
+      <c r="AE25" s="5"/>
+      <c r="AF25" s="5"/>
+      <c r="AG25" s="5"/>
+      <c r="AH25" s="5"/>
+      <c r="AI25" s="5"/>
+      <c r="AJ25" s="5"/>
+      <c r="AK25" s="5"/>
+      <c r="AL25" s="5"/>
+      <c r="AM25" s="5"/>
+    </row>
+    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>8</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="3">
+        <v>15</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="3">
+        <v>22</v>
+      </c>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="3">
+        <v>27</v>
+      </c>
+      <c r="K26" s="2"/>
+      <c r="L26" s="1"/>
+      <c r="T26">
+        <v>30</v>
+      </c>
+      <c r="U26">
+        <f>90-T26</f>
+        <v>60</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="W26">
+        <f>IF(AND(T26&gt;=45,T26&lt;=135),45-T26,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="24"/>
+      <c r="AC26" s="24"/>
+      <c r="AD26" s="24"/>
+      <c r="AE26" s="24"/>
+      <c r="AF26" s="24"/>
+      <c r="AG26" s="24"/>
+      <c r="AH26" s="24"/>
+      <c r="AI26" s="24"/>
+      <c r="AJ26" s="24"/>
+      <c r="AK26" s="24"/>
+      <c r="AL26" s="24"/>
+      <c r="AM26" s="24"/>
+      <c r="AN26" s="24"/>
+      <c r="AO26" s="24"/>
+      <c r="AP26" s="24"/>
+      <c r="AQ26" s="4"/>
+      <c r="AR26" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>9</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="3">
+        <v>16</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="3">
+        <v>21</v>
+      </c>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="3">
+        <v>28</v>
+      </c>
+      <c r="K27" s="2"/>
+      <c r="L27" s="1"/>
+      <c r="T27">
+        <v>45</v>
+      </c>
+      <c r="U27">
+        <f>90-T27</f>
+        <v>45</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <f>IF(AND(T27&gt;=45,T27&lt;=135),45-T27,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB27" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC27" s="25"/>
+      <c r="AD27" s="4"/>
+      <c r="AE27" s="4"/>
+      <c r="AF27" s="4"/>
+      <c r="AG27" s="4"/>
+      <c r="AH27" s="4"/>
+      <c r="AI27" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ27" s="25"/>
+      <c r="AK27" s="4"/>
+      <c r="AL27" s="4"/>
+      <c r="AM27" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN27" s="25"/>
+      <c r="AO27" s="4"/>
+      <c r="AP27" s="4"/>
+      <c r="AQ27" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR27" s="25"/>
+    </row>
+    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>10</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="3">
+        <v>17</v>
+      </c>
+      <c r="E28" s="3">
+        <v>18</v>
+      </c>
+      <c r="F28" s="3">
+        <v>19</v>
+      </c>
+      <c r="G28" s="3">
+        <v>20</v>
+      </c>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="3">
+        <v>29</v>
+      </c>
+      <c r="K28" s="2"/>
+      <c r="L28" s="1"/>
+      <c r="T28">
+        <v>230</v>
+      </c>
+      <c r="U28">
+        <v>220</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+      <c r="W28">
+        <f>IF(AND(T28&gt;=45,T28&lt;=135),45-T28,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB28" s="29">
+        <v>45</v>
+      </c>
+      <c r="AC28" s="29">
+        <v>45</v>
+      </c>
+      <c r="AD28">
+        <f>90-AB28</f>
+        <v>45</v>
+      </c>
+      <c r="AI28" s="28">
+        <v>135</v>
+      </c>
+      <c r="AJ28" s="28">
+        <v>315</v>
+      </c>
+      <c r="AM28" s="27">
+        <v>225</v>
+      </c>
+      <c r="AN28" s="27">
+        <v>225</v>
+      </c>
+      <c r="AQ28" s="26">
+        <v>315</v>
+      </c>
+      <c r="AR28" s="26">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>11</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="3">
+        <v>30</v>
+      </c>
+      <c r="K29" s="2"/>
+      <c r="L29" s="1"/>
+      <c r="T29">
+        <v>180</v>
+      </c>
+      <c r="U29">
+        <v>270</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="W29">
+        <f>IF(AND(T29&gt;=45,T29&lt;=135),45-T29,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB29" s="29">
+        <v>46</v>
+      </c>
+      <c r="AC29" s="29">
+        <v>44</v>
+      </c>
+      <c r="AD29">
+        <f>90-AB29</f>
+        <v>44</v>
+      </c>
+      <c r="AI29" s="28">
+        <v>136</v>
+      </c>
+      <c r="AJ29" s="28">
+        <v>314</v>
+      </c>
+      <c r="AM29" s="27">
+        <v>226</v>
+      </c>
+      <c r="AN29" s="27">
+        <v>224</v>
+      </c>
+      <c r="AQ29" s="26">
+        <v>316</v>
+      </c>
+      <c r="AR29" s="26">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>12</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="3">
+        <v>31</v>
+      </c>
+      <c r="K30" s="2"/>
+      <c r="L30" s="1"/>
+      <c r="T30">
+        <f>90+45</f>
+        <v>135</v>
+      </c>
+      <c r="U30">
+        <v>315</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="W30">
+        <f>IF(AND(T30&gt;=45,T30&lt;=135),45-T30,0)</f>
+        <v>-90</v>
+      </c>
+      <c r="AB30" s="29">
+        <v>50</v>
+      </c>
+      <c r="AC30" s="29">
+        <v>40</v>
+      </c>
+      <c r="AD30">
+        <f t="shared" ref="AD30:AD41" si="1">90-AB30</f>
+        <v>40</v>
+      </c>
+      <c r="AI30" s="28">
+        <v>140</v>
+      </c>
+      <c r="AJ30" s="28">
+        <v>310</v>
+      </c>
+      <c r="AM30" s="27">
+        <v>230</v>
+      </c>
+      <c r="AN30" s="27">
+        <v>220</v>
+      </c>
+      <c r="AQ30" s="26">
+        <v>320</v>
+      </c>
+      <c r="AR30" s="26">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>13</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="3">
+        <v>32</v>
+      </c>
+      <c r="K31" s="2"/>
+      <c r="L31" s="1"/>
+      <c r="AB31" s="29">
+        <v>60</v>
+      </c>
+      <c r="AC31" s="29">
+        <v>30</v>
+      </c>
+      <c r="AD31">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="AI31" s="28">
+        <v>150</v>
+      </c>
+      <c r="AJ31" s="28">
+        <v>300</v>
+      </c>
+      <c r="AM31" s="27">
+        <v>240</v>
+      </c>
+      <c r="AN31" s="27">
+        <v>210</v>
+      </c>
+      <c r="AQ31" s="26">
+        <v>330</v>
+      </c>
+      <c r="AR31" s="26">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>14</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="3">
+        <v>33</v>
+      </c>
+      <c r="K32" s="2"/>
+      <c r="L32" s="1"/>
+      <c r="AB32" s="29">
+        <v>70</v>
+      </c>
+      <c r="AC32" s="29">
+        <v>20</v>
+      </c>
+      <c r="AD32">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="AI32" s="28">
+        <v>160</v>
+      </c>
+      <c r="AJ32" s="28">
+        <v>290</v>
+      </c>
+      <c r="AM32" s="27">
+        <v>250</v>
+      </c>
+      <c r="AN32" s="27">
+        <v>200</v>
+      </c>
+      <c r="AQ32" s="26">
+        <v>340</v>
+      </c>
+      <c r="AR32" s="26">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>15</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1">
+        <v>34</v>
+      </c>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="AB33" s="29">
+        <v>80</v>
+      </c>
+      <c r="AC33" s="29">
+        <v>10</v>
+      </c>
+      <c r="AD33">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="AI33" s="28">
+        <v>170</v>
+      </c>
+      <c r="AJ33" s="28">
+        <v>280</v>
+      </c>
+      <c r="AM33" s="27">
+        <v>260</v>
+      </c>
+      <c r="AN33" s="27">
+        <v>190</v>
+      </c>
+      <c r="AQ33" s="26">
+        <v>350</v>
+      </c>
+      <c r="AR33" s="26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AB34" s="29">
+        <v>90</v>
+      </c>
+      <c r="AC34" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AI34" s="28">
+        <v>180</v>
+      </c>
+      <c r="AJ34" s="28">
+        <v>270</v>
+      </c>
+      <c r="AM34" s="27">
+        <v>270</v>
+      </c>
+      <c r="AN34" s="27">
+        <v>180</v>
+      </c>
+      <c r="AQ34" s="26">
+        <v>360</v>
+      </c>
+      <c r="AR34" s="26">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AB35" s="29">
+        <v>100</v>
+      </c>
+      <c r="AC35" s="29">
+        <v>350</v>
+      </c>
+      <c r="AD35">
+        <f t="shared" si="1"/>
+        <v>-10</v>
+      </c>
+      <c r="AE35">
+        <f>360+AD35</f>
+        <v>350</v>
+      </c>
+      <c r="AI35" s="28">
+        <v>190</v>
+      </c>
+      <c r="AJ35" s="28">
+        <v>260</v>
+      </c>
+      <c r="AM35" s="27">
+        <v>280</v>
+      </c>
+      <c r="AN35" s="27">
+        <v>170</v>
+      </c>
+      <c r="AQ35" s="26">
+        <v>370</v>
+      </c>
+      <c r="AR35" s="26">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AB36" s="29">
+        <v>110</v>
+      </c>
+      <c r="AC36" s="29">
+        <v>340</v>
+      </c>
+      <c r="AD36">
+        <f t="shared" si="1"/>
+        <v>-20</v>
+      </c>
+      <c r="AE36">
+        <f t="shared" ref="AE36:AE75" si="2">360+AD36</f>
+        <v>340</v>
+      </c>
+      <c r="AI36" s="28">
+        <v>200</v>
+      </c>
+      <c r="AJ36" s="28">
+        <v>250</v>
+      </c>
+      <c r="AM36" s="27">
+        <v>290</v>
+      </c>
+      <c r="AN36" s="27">
+        <v>160</v>
+      </c>
+      <c r="AQ36" s="26">
+        <v>380</v>
+      </c>
+      <c r="AR36" s="26">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AB37" s="29">
+        <v>120</v>
+      </c>
+      <c r="AC37" s="29">
+        <v>330</v>
+      </c>
+      <c r="AD37">
+        <f t="shared" si="1"/>
+        <v>-30</v>
+      </c>
+      <c r="AE37">
+        <f t="shared" si="2"/>
+        <v>330</v>
+      </c>
+      <c r="AI37" s="28">
+        <v>210</v>
+      </c>
+      <c r="AJ37" s="28">
+        <v>240</v>
+      </c>
+      <c r="AM37" s="27">
+        <v>300</v>
+      </c>
+      <c r="AN37" s="27">
+        <v>150</v>
+      </c>
+      <c r="AQ37" s="26">
+        <v>390</v>
+      </c>
+      <c r="AR37" s="26">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AB38" s="29">
+        <v>130</v>
+      </c>
+      <c r="AC38" s="29">
+        <v>320</v>
+      </c>
+      <c r="AD38">
+        <f t="shared" si="1"/>
+        <v>-40</v>
+      </c>
+      <c r="AE38">
+        <f t="shared" si="2"/>
+        <v>320</v>
+      </c>
+      <c r="AI38" s="28">
+        <v>220</v>
+      </c>
+      <c r="AJ38" s="28">
+        <v>230</v>
+      </c>
+      <c r="AM38" s="27">
+        <v>310</v>
+      </c>
+      <c r="AN38" s="27">
+        <v>140</v>
+      </c>
+      <c r="AQ38" s="26">
+        <v>400</v>
+      </c>
+      <c r="AR38" s="26">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AB39" s="29">
+        <v>135</v>
+      </c>
+      <c r="AC39" s="29">
+        <v>315</v>
+      </c>
+      <c r="AD39">
+        <f t="shared" si="1"/>
+        <v>-45</v>
+      </c>
+      <c r="AE39">
+        <f t="shared" si="2"/>
+        <v>315</v>
+      </c>
+      <c r="AI39" s="28">
+        <v>225</v>
+      </c>
+      <c r="AJ39" s="28">
+        <v>225</v>
+      </c>
+      <c r="AM39" s="27">
+        <v>315</v>
+      </c>
+      <c r="AN39" s="27">
+        <v>135</v>
+      </c>
+      <c r="AQ39" s="26">
+        <v>405</v>
+      </c>
+      <c r="AR39" s="26">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AB40" s="28">
+        <v>135</v>
+      </c>
+      <c r="AC40" s="28">
+        <v>315</v>
+      </c>
+      <c r="AD40">
+        <f t="shared" si="1"/>
+        <v>-45</v>
+      </c>
+      <c r="AE40">
+        <f t="shared" si="2"/>
+        <v>315</v>
+      </c>
+      <c r="AI40" s="27">
+        <v>225</v>
+      </c>
+      <c r="AJ40" s="27">
+        <v>225</v>
+      </c>
+      <c r="AM40" s="26">
+        <v>315</v>
+      </c>
+      <c r="AN40" s="26">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="41" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AB41" s="28">
+        <v>136</v>
+      </c>
+      <c r="AC41" s="28">
+        <v>314</v>
+      </c>
+      <c r="AD41">
+        <f t="shared" si="1"/>
+        <v>-46</v>
+      </c>
+      <c r="AE41">
+        <f t="shared" si="2"/>
+        <v>314</v>
+      </c>
+      <c r="AI41" s="27">
+        <v>226</v>
+      </c>
+      <c r="AJ41" s="27">
+        <v>224</v>
+      </c>
+      <c r="AM41" s="26">
+        <v>316</v>
+      </c>
+      <c r="AN41" s="26">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AB42" s="28">
+        <v>140</v>
+      </c>
+      <c r="AC42" s="28">
+        <v>310</v>
+      </c>
+      <c r="AD42">
+        <f t="shared" ref="AD42:AD75" si="3">90-AB42</f>
+        <v>-50</v>
+      </c>
+      <c r="AE42">
+        <f t="shared" si="2"/>
+        <v>310</v>
+      </c>
+      <c r="AI42" s="27">
+        <v>230</v>
+      </c>
+      <c r="AJ42" s="27">
+        <v>220</v>
+      </c>
+      <c r="AM42" s="26">
+        <v>320</v>
+      </c>
+      <c r="AN42" s="26">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AB43" s="28">
+        <v>150</v>
+      </c>
+      <c r="AC43" s="28">
+        <v>300</v>
+      </c>
+      <c r="AD43">
+        <f t="shared" si="3"/>
+        <v>-60</v>
+      </c>
+      <c r="AE43">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+      <c r="AI43" s="27">
+        <v>240</v>
+      </c>
+      <c r="AJ43" s="27">
+        <v>210</v>
+      </c>
+      <c r="AM43" s="26">
+        <v>330</v>
+      </c>
+      <c r="AN43" s="26">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AB44" s="28">
+        <v>160</v>
+      </c>
+      <c r="AC44" s="28">
+        <v>290</v>
+      </c>
+      <c r="AD44">
+        <f t="shared" si="3"/>
+        <v>-70</v>
+      </c>
+      <c r="AE44">
+        <f t="shared" si="2"/>
+        <v>290</v>
+      </c>
+      <c r="AI44" s="27">
+        <v>250</v>
+      </c>
+      <c r="AJ44" s="27">
+        <v>200</v>
+      </c>
+      <c r="AM44" s="26">
+        <v>340</v>
+      </c>
+      <c r="AN44" s="26">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AB45" s="28">
+        <v>170</v>
+      </c>
+      <c r="AC45" s="28">
+        <v>280</v>
+      </c>
+      <c r="AD45">
+        <f t="shared" si="3"/>
+        <v>-80</v>
+      </c>
+      <c r="AE45">
+        <f t="shared" si="2"/>
+        <v>280</v>
+      </c>
+      <c r="AI45" s="27">
+        <v>260</v>
+      </c>
+      <c r="AJ45" s="27">
+        <v>190</v>
+      </c>
+      <c r="AM45" s="26">
+        <v>350</v>
+      </c>
+      <c r="AN45" s="26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AB46" s="28">
+        <v>180</v>
+      </c>
+      <c r="AC46" s="28">
+        <v>270</v>
+      </c>
+      <c r="AD46">
+        <f t="shared" si="3"/>
+        <v>-90</v>
+      </c>
+      <c r="AE46">
+        <f t="shared" si="2"/>
+        <v>270</v>
+      </c>
+      <c r="AI46" s="27">
+        <v>270</v>
+      </c>
+      <c r="AJ46" s="27">
+        <v>180</v>
+      </c>
+      <c r="AM46" s="26">
+        <v>360</v>
+      </c>
+      <c r="AN46" s="26">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AB47" s="28">
+        <v>190</v>
+      </c>
+      <c r="AC47" s="28">
+        <v>260</v>
+      </c>
+      <c r="AD47">
+        <f t="shared" si="3"/>
+        <v>-100</v>
+      </c>
+      <c r="AE47">
+        <f t="shared" si="2"/>
+        <v>260</v>
+      </c>
+      <c r="AI47" s="27">
+        <v>280</v>
+      </c>
+      <c r="AJ47" s="27">
+        <v>170</v>
+      </c>
+      <c r="AM47" s="26">
+        <v>370</v>
+      </c>
+      <c r="AN47" s="26">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AB48" s="28">
+        <v>200</v>
+      </c>
+      <c r="AC48" s="28">
+        <v>250</v>
+      </c>
+      <c r="AD48">
+        <f t="shared" si="3"/>
+        <v>-110</v>
+      </c>
+      <c r="AE48">
+        <f t="shared" si="2"/>
+        <v>250</v>
+      </c>
+      <c r="AI48" s="27">
+        <v>290</v>
+      </c>
+      <c r="AJ48" s="27">
+        <v>160</v>
+      </c>
+      <c r="AM48" s="26">
+        <v>380</v>
+      </c>
+      <c r="AN48" s="26">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="28:40" x14ac:dyDescent="0.25">
+      <c r="AB49" s="28">
+        <v>210</v>
+      </c>
+      <c r="AC49" s="28">
+        <v>240</v>
+      </c>
+      <c r="AD49">
+        <f t="shared" si="3"/>
+        <v>-120</v>
+      </c>
+      <c r="AE49">
+        <f t="shared" si="2"/>
+        <v>240</v>
+      </c>
+      <c r="AI49" s="27">
+        <v>300</v>
+      </c>
+      <c r="AJ49" s="27">
+        <v>150</v>
+      </c>
+      <c r="AM49" s="26">
+        <v>390</v>
+      </c>
+      <c r="AN49" s="26">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="28:40" x14ac:dyDescent="0.25">
+      <c r="AB50" s="28">
+        <v>220</v>
+      </c>
+      <c r="AC50" s="28">
+        <v>230</v>
+      </c>
+      <c r="AD50">
+        <f t="shared" si="3"/>
+        <v>-130</v>
+      </c>
+      <c r="AE50">
+        <f t="shared" si="2"/>
+        <v>230</v>
+      </c>
+      <c r="AI50" s="27">
+        <v>310</v>
+      </c>
+      <c r="AJ50" s="27">
+        <v>140</v>
+      </c>
+      <c r="AM50" s="26">
+        <v>400</v>
+      </c>
+      <c r="AN50" s="26">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="28:40" x14ac:dyDescent="0.25">
+      <c r="AB51" s="28">
+        <v>225</v>
+      </c>
+      <c r="AC51" s="28">
+        <v>225</v>
+      </c>
+      <c r="AD51">
+        <f t="shared" si="3"/>
+        <v>-135</v>
+      </c>
+      <c r="AE51">
+        <f t="shared" si="2"/>
+        <v>225</v>
+      </c>
+      <c r="AI51" s="27">
+        <v>315</v>
+      </c>
+      <c r="AJ51" s="27">
+        <v>135</v>
+      </c>
+      <c r="AM51" s="26">
+        <v>405</v>
+      </c>
+      <c r="AN51" s="26">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="28:40" x14ac:dyDescent="0.25">
+      <c r="AB52" s="27">
+        <v>225</v>
+      </c>
+      <c r="AC52" s="27">
+        <v>225</v>
+      </c>
+      <c r="AD52">
+        <f t="shared" si="3"/>
+        <v>-135</v>
+      </c>
+      <c r="AE52">
+        <f t="shared" si="2"/>
+        <v>225</v>
+      </c>
+      <c r="AI52" s="26">
+        <v>315</v>
+      </c>
+      <c r="AJ52" s="26">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="53" spans="28:40" x14ac:dyDescent="0.25">
+      <c r="AB53" s="27">
+        <v>226</v>
+      </c>
+      <c r="AC53" s="27">
+        <v>224</v>
+      </c>
+      <c r="AD53">
+        <f t="shared" si="3"/>
+        <v>-136</v>
+      </c>
+      <c r="AE53">
+        <f t="shared" si="2"/>
+        <v>224</v>
+      </c>
+      <c r="AI53" s="26">
+        <v>316</v>
+      </c>
+      <c r="AJ53" s="26">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="54" spans="28:40" x14ac:dyDescent="0.25">
+      <c r="AB54" s="27">
+        <v>230</v>
+      </c>
+      <c r="AC54" s="27">
+        <v>220</v>
+      </c>
+      <c r="AD54">
+        <f t="shared" si="3"/>
+        <v>-140</v>
+      </c>
+      <c r="AE54">
+        <f t="shared" si="2"/>
+        <v>220</v>
+      </c>
+      <c r="AI54" s="26">
+        <v>320</v>
+      </c>
+      <c r="AJ54" s="26">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="55" spans="28:40" x14ac:dyDescent="0.25">
+      <c r="AB55" s="27">
+        <v>240</v>
+      </c>
+      <c r="AC55" s="27">
+        <v>210</v>
+      </c>
+      <c r="AD55">
+        <f t="shared" si="3"/>
+        <v>-150</v>
+      </c>
+      <c r="AE55">
+        <f t="shared" si="2"/>
+        <v>210</v>
+      </c>
+      <c r="AI55" s="26">
+        <v>330</v>
+      </c>
+      <c r="AJ55" s="26">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56" spans="28:40" x14ac:dyDescent="0.25">
+      <c r="AB56" s="27">
+        <v>250</v>
+      </c>
+      <c r="AC56" s="27">
+        <v>200</v>
+      </c>
+      <c r="AD56">
+        <f t="shared" si="3"/>
+        <v>-160</v>
+      </c>
+      <c r="AE56">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="AI56" s="26">
+        <v>340</v>
+      </c>
+      <c r="AJ56" s="26">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57" spans="28:40" x14ac:dyDescent="0.25">
+      <c r="AB57" s="27">
+        <v>260</v>
+      </c>
+      <c r="AC57" s="27">
+        <v>190</v>
+      </c>
+      <c r="AD57">
+        <f t="shared" si="3"/>
+        <v>-170</v>
+      </c>
+      <c r="AE57">
+        <f t="shared" si="2"/>
+        <v>190</v>
+      </c>
+      <c r="AI57" s="26">
+        <v>350</v>
+      </c>
+      <c r="AJ57" s="26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="28:40" x14ac:dyDescent="0.25">
+      <c r="AB58" s="27">
+        <v>270</v>
+      </c>
+      <c r="AC58" s="27">
+        <v>180</v>
+      </c>
+      <c r="AD58">
+        <f t="shared" si="3"/>
+        <v>-180</v>
+      </c>
+      <c r="AE58">
+        <f t="shared" si="2"/>
+        <v>180</v>
+      </c>
+      <c r="AI58" s="26">
+        <v>360</v>
+      </c>
+      <c r="AJ58" s="26">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="28:40" x14ac:dyDescent="0.25">
+      <c r="AB59" s="27">
+        <v>280</v>
+      </c>
+      <c r="AC59" s="27">
+        <v>170</v>
+      </c>
+      <c r="AD59">
+        <f t="shared" si="3"/>
+        <v>-190</v>
+      </c>
+      <c r="AE59">
+        <f t="shared" si="2"/>
+        <v>170</v>
+      </c>
+      <c r="AI59" s="26">
+        <v>370</v>
+      </c>
+      <c r="AJ59" s="26">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="28:40" x14ac:dyDescent="0.25">
+      <c r="AB60" s="27">
+        <v>290</v>
+      </c>
+      <c r="AC60" s="27">
+        <v>160</v>
+      </c>
+      <c r="AD60">
+        <f t="shared" si="3"/>
+        <v>-200</v>
+      </c>
+      <c r="AE60">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
+      <c r="AI60" s="26">
+        <v>380</v>
+      </c>
+      <c r="AJ60" s="26">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="61" spans="28:40" x14ac:dyDescent="0.25">
+      <c r="AB61" s="27">
+        <v>300</v>
+      </c>
+      <c r="AC61" s="27">
+        <v>150</v>
+      </c>
+      <c r="AD61">
+        <f t="shared" si="3"/>
+        <v>-210</v>
+      </c>
+      <c r="AE61">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="AI61" s="26">
+        <v>390</v>
+      </c>
+      <c r="AJ61" s="26">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="28:40" x14ac:dyDescent="0.25">
+      <c r="AB62" s="27">
+        <v>310</v>
+      </c>
+      <c r="AC62" s="27">
+        <v>140</v>
+      </c>
+      <c r="AD62">
+        <f t="shared" si="3"/>
+        <v>-220</v>
+      </c>
+      <c r="AE62">
+        <f t="shared" si="2"/>
+        <v>140</v>
+      </c>
+      <c r="AI62" s="26">
+        <v>400</v>
+      </c>
+      <c r="AJ62" s="26">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="28:40" x14ac:dyDescent="0.25">
+      <c r="AB63" s="27">
+        <v>315</v>
+      </c>
+      <c r="AC63" s="27">
+        <v>135</v>
+      </c>
+      <c r="AD63">
+        <f t="shared" si="3"/>
+        <v>-225</v>
+      </c>
+      <c r="AE63">
+        <f t="shared" si="2"/>
+        <v>135</v>
+      </c>
+      <c r="AI63" s="26">
+        <v>405</v>
+      </c>
+      <c r="AJ63" s="26">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="64" spans="28:40" x14ac:dyDescent="0.25">
+      <c r="AB64" s="26">
+        <v>315</v>
+      </c>
+      <c r="AC64" s="26">
+        <v>135</v>
+      </c>
+      <c r="AD64">
+        <f t="shared" si="3"/>
+        <v>-225</v>
+      </c>
+      <c r="AE64">
+        <f t="shared" si="2"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="65" spans="28:31" x14ac:dyDescent="0.25">
+      <c r="AB65" s="26">
+        <v>316</v>
+      </c>
+      <c r="AC65" s="26">
+        <v>134</v>
+      </c>
+      <c r="AD65">
+        <f t="shared" si="3"/>
+        <v>-226</v>
+      </c>
+      <c r="AE65">
+        <f t="shared" si="2"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="66" spans="28:31" x14ac:dyDescent="0.25">
+      <c r="AB66" s="26">
+        <v>320</v>
+      </c>
+      <c r="AC66" s="26">
+        <v>130</v>
+      </c>
+      <c r="AD66">
+        <f t="shared" si="3"/>
+        <v>-230</v>
+      </c>
+      <c r="AE66">
+        <f t="shared" si="2"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="67" spans="28:31" x14ac:dyDescent="0.25">
+      <c r="AB67" s="26">
+        <v>330</v>
+      </c>
+      <c r="AC67" s="26">
+        <v>120</v>
+      </c>
+      <c r="AD67">
+        <f t="shared" si="3"/>
+        <v>-240</v>
+      </c>
+      <c r="AE67">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="68" spans="28:31" x14ac:dyDescent="0.25">
+      <c r="AB68" s="26">
+        <v>340</v>
+      </c>
+      <c r="AC68" s="26">
+        <v>110</v>
+      </c>
+      <c r="AD68">
+        <f t="shared" si="3"/>
+        <v>-250</v>
+      </c>
+      <c r="AE68">
+        <f t="shared" si="2"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="69" spans="28:31" x14ac:dyDescent="0.25">
+      <c r="AB69" s="26">
+        <v>350</v>
+      </c>
+      <c r="AC69" s="26">
+        <v>100</v>
+      </c>
+      <c r="AD69">
+        <f t="shared" si="3"/>
+        <v>-260</v>
+      </c>
+      <c r="AE69">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="28:31" x14ac:dyDescent="0.25">
+      <c r="AB70" s="26">
+        <v>360</v>
+      </c>
+      <c r="AC70" s="26">
+        <v>90</v>
+      </c>
+      <c r="AD70">
+        <f t="shared" si="3"/>
+        <v>-270</v>
+      </c>
+      <c r="AE70">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="71" spans="28:31" x14ac:dyDescent="0.25">
+      <c r="AB71" s="26">
+        <v>370</v>
+      </c>
+      <c r="AC71" s="26">
+        <v>80</v>
+      </c>
+      <c r="AD71">
+        <f t="shared" si="3"/>
+        <v>-280</v>
+      </c>
+      <c r="AE71">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="72" spans="28:31" x14ac:dyDescent="0.25">
+      <c r="AB72" s="26">
+        <v>380</v>
+      </c>
+      <c r="AC72" s="26">
+        <v>70</v>
+      </c>
+      <c r="AD72">
+        <f t="shared" si="3"/>
+        <v>-290</v>
+      </c>
+      <c r="AE72">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="28:31" x14ac:dyDescent="0.25">
+      <c r="AB73" s="26">
+        <v>390</v>
+      </c>
+      <c r="AC73" s="26">
+        <v>60</v>
+      </c>
+      <c r="AD73">
+        <f t="shared" si="3"/>
+        <v>-300</v>
+      </c>
+      <c r="AE73">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="74" spans="28:31" x14ac:dyDescent="0.25">
+      <c r="AB74" s="26">
+        <v>400</v>
+      </c>
+      <c r="AC74" s="26">
+        <v>50</v>
+      </c>
+      <c r="AD74">
+        <f t="shared" si="3"/>
+        <v>-310</v>
+      </c>
+      <c r="AE74">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="28:31" x14ac:dyDescent="0.25">
+      <c r="AB75" s="26">
+        <v>405</v>
+      </c>
+      <c r="AC75" s="26">
+        <v>45</v>
+      </c>
+      <c r="AD75">
+        <f t="shared" si="3"/>
+        <v>-315</v>
+      </c>
+      <c r="AE75">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="AB27:AC27"/>
+    <mergeCell ref="AI27:AJ27"/>
+    <mergeCell ref="AM27:AN27"/>
+    <mergeCell ref="AQ27:AR27"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -948,7 +3621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D659DA7E-2040-43B2-9D87-5F0552E31D43}">
   <dimension ref="A1:AP26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
@@ -2097,10 +4770,10 @@
       <c r="AC24" s="5"/>
       <c r="AD24" s="5"/>
       <c r="AE24" s="5"/>
-      <c r="AF24" s="23">
+      <c r="AF24" s="22">
         <v>0.85</v>
       </c>
-      <c r="AG24" s="22"/>
+      <c r="AG24" s="23"/>
       <c r="AH24" s="5"/>
       <c r="AI24" s="5"/>
       <c r="AJ24" s="5"/>
@@ -2142,8 +4815,8 @@
       <c r="AC25" s="5"/>
       <c r="AD25" s="5"/>
       <c r="AE25" s="5"/>
-      <c r="AF25" s="22"/>
-      <c r="AG25" s="22"/>
+      <c r="AF25" s="23"/>
+      <c r="AG25" s="23"/>
       <c r="AH25" s="5"/>
       <c r="AI25" s="5"/>
       <c r="AJ25" s="5"/>
